--- a/SnPTruthTable.xlsx
+++ b/SnPTruthTable.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f31e73b004c6ed25/Work/B737-800MPD/B737-800MPD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_5ED5C0F755530B24F52D4CE3E56A0AF179736DA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4C20B3-9B77-4D06-BAF4-B982B510DC8D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$687</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7204" uniqueCount="2361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7208" uniqueCount="2363">
   <si>
     <t>Revision</t>
   </si>
@@ -8840,212 +8849,218 @@
 Applicable to airplanes line number 1 to 144 incorporating SB 737-56-1011.</t>
   </si>
   <si>
-    <t>AIRPLANE NOTE: Functional check using the Loop Resistance Test in AMM 05-55-44-200-XXX is the Boeing preferred method. An alternate Bond Resistance Test is provided for operators in lieu of a Loop Resistance Test for operators choosing to utilize the approved Bond Resistance Test method. Please complete this functional check using a Loop Resistance Test or a Bond Resistance Test.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Functional check using the Loop Resistance Test in AMM 05-55-45-200-XXX is the Boeing preferred method. An alternate Bond Resistance Test is provided for operators in lieu of a Loop Resistance Test for operators choosing to utilize the approved Bond Resistance Test method. Please complete this functional check using a Loop Resistance Test or a Bond Resistance Test.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with the M2445 Rudder position sensor and M2446 Rudder actuator (servo) installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 1 thru 1856 that have not incorporated SB 737-24-1172.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 1 thru 1856 that have incorporated SB 737-24-1172. Also applicable to airplanes line number 1857 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Functional check using the Loop Resistance Test in AMM 05-55-46-200-803 is the Boeing preferred method. An alternate Bond Resistance Test is provided for operators in lieu of a Loop Resistance Test for operators choosing to utilize the approved Bond Resistance Test method. Please complete this functional check using a Loop Resistance Test or a Bond Resistance Test.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 3470 and on or those airplanes that have incorporated SB 737-33-1146.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with the S67-2002-18 LRRA antenna installed without Gasket AG723000-40. The production configuration for L/N 1 through 4306 is with LRRA antenna S67-2002-18 installed without Gasket AG723000-40.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with the S67-2002-18 LRRA antenna and Gasket AG723000-40 installed. The production configuration for L/N 1 through 4306 is with LRRA antenna S67-2002-18 installed without Gasket AG723000-40.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with the S67-2002-28 LRRA antenna and Gasket AG723000-40 installed. The production configuration for L/N 4307 and on is with LRRA antenna S67-2002-28 and Gasket AG723000-40 installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Exhaust fan operational check is applicable to 737-600/-700/-800 airplanes Line Number 1701 and on, and L/N 1-1700 that have incorporated SB 737-26-1122. Operational check of the recirculation fan is not applicable to 737-800BCF.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If Installed in compliance with SB 737-21-1154</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes equipped with part number BOE2003-0052 seal.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If Installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applies to airplanes with single battery installation only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applies to airplanes with single battery installations only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applies to airplanes with dual battery installation only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applies to airplanes with dual battery installations only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with AMSAFE inflatable seat restraints installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If Installed. Applicable to dry cell type ELT's only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If Installed. Applicable to non-dry cell type ELT's only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with non-rechargeable flashlight batteries.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with rechargeable flashlight batteries.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applies to Jamco (ionization type) lavatory smoke detectors only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Filter/drier and metering orifice are applicable if second halon bottle installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If second halon bottle installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 2093, 2216 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 596; and 1268 and on; and L/N 1-595 and 597-1267 with incorporation of SB 737-27-1253.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes L/N 1-595 and 597-1267 that have not incorporated SB 737-27-1253.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If Installed</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 596; and 1175 and on; and L/N 1-595 and 597-1174 that have incorporated SB 737-55A1080.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to all airplanes except 737-900 line number 683 to 1174 that have not incorporated SB 737-55-1081.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 350 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For 251A4510-4 actuator, restore both primary and secondary stabilizer trim actuator brakes. For 251A4510-5 actuator, restore only the secondary stabilizer trim actuator brake.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 900ER and airplanes with Short Field Performance Package (if installed).</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to all 737-700 airplanes with winglets except 737-700IGW.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 1981 and 2093.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplane line number 1973 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes L/N 1 to 1691 that have incorporated Boeing SB 737-57A1279, L/N 1692 to 1754 that have incorporated Boeing SB 737-57A1279 or Boeing SB 737-28-1312, and L/N 1755 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: This CMR is only applicable to the following fuel pumps if the fuel pumps are installed without fuel pump ground fault interrupter (GFI): Boost Pumps 60B92404-6, 60B92404-7 and Override Pumps 60B89004-10, 60B89004-12.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplane line numbers 1494 and on, and operators that have incorporated Boeing Service Bulletin 737-28A1206.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If the APU fuel boost pump is installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with densitometers from line number 1767 and on, and airplanes incorporating service bulletin 737-28A1221</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with densitometers from line number 1767 and on, and airplanes incorporating Service Bulletin 737-28A1221.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Airplanes L/N 1877 - 1980, and 1982; and Airplanes that have incorporated Service Bulletin 737-28A1207.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with automatic Air Data Sensor heating installed. Airplanes Line Number 3424 and on, and airplanes incorporating SB 737-30A1063.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 900ER and airplanes with Short Field Performance Package and Two-Position Tailskid (if installed).</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Single lens configuration only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Dual Lens Configuration (Glass).</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Not applicable to airplanes with all gaseous passenger oxygen system.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If lavatory oxygen Constant Dispensing System (CDS) installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 737-800BCF if installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplane with forward gray water drain valve installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with vacuum blower equipped with a filter.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to filter basket part numbers 01940-001 and 01956-000.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to all filter basket part numbers except 01940-001 and 01956-000.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: If Nitrogen Generation System is installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: LN 1820, 1831, 2517, 2620 and on; and All airplanes that have incorporated Service Bulletin 737-47-1003</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to Parker Hannifin Corporation filter element P/N 2040025-207.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplane L/N 1221 and on and to those airplanes with the new flight deck security door installed by the customer specific Boeing service bulletins.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with exhaust plugs equipped with drain pan and tube system installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with active Mid-Exit Doors installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 737-900 airplanes line number 683 to 1174.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes 737-900 line number 683 to 1174 that have not incorporated SB 737-55-1081.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Airplanes with gaseous passenger oxygen system installed. (All 700C airplanes have gaseous oxygen. Gaseous passenger oxygen is an option on the 700).</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes line number 145 and on.</t>
+    <t xml:space="preserve"> Task is for Single Annular Combustor engines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task is for Double Annular Combustor engines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional check using the Loop Resistance Test in AMM 05-55-44-200-XXX is the Boeing preferred method. An alternate Bond Resistance Test is provided for operators in lieu of a Loop Resistance Test for operators choosing to utilize the approved Bond Resistance Test method. Please complete this functional check using a Loop Resistance Test or a Bond Resistance Test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional check using the Loop Resistance Test in AMM 05-55-45-200-XXX is the Boeing preferred method. An alternate Bond Resistance Test is provided for operators in lieu of a Loop Resistance Test for operators choosing to utilize the approved Bond Resistance Test method. Please complete this functional check using a Loop Resistance Test or a Bond Resistance Test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with the M2445 Rudder position sensor and M2446 Rudder actuator (servo) installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 1 thru 1856 that have not incorporated SB 737-24-1172.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 1 thru 1856 that have incorporated SB 737-24-1172. Also applicable to airplanes line number 1857 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional check using the Loop Resistance Test in AMM 05-55-46-200-803 is the Boeing preferred method. An alternate Bond Resistance Test is provided for operators in lieu of a Loop Resistance Test for operators choosing to utilize the approved Bond Resistance Test method. Please complete this functional check using a Loop Resistance Test or a Bond Resistance Test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 3470 and on or those airplanes that have incorporated SB 737-33-1146.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with the S67-2002-18 LRRA antenna installed without Gasket AG723000-40. The production configuration for L/N 1 through 4306 is with LRRA antenna S67-2002-18 installed without Gasket AG723000-40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with the S67-2002-18 LRRA antenna and Gasket AG723000-40 installed. The production configuration for L/N 1 through 4306 is with LRRA antenna S67-2002-18 installed without Gasket AG723000-40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with the S67-2002-28 LRRA antenna and Gasket AG723000-40 installed. The production configuration for L/N 4307 and on is with LRRA antenna S67-2002-28 and Gasket AG723000-40 installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exhaust fan operational check is applicable to 737-600/-700/-800 airplanes Line Number 1701 and on, and L/N 1-1700 that have incorporated SB 737-26-1122. Operational check of the recirculation fan is not applicable to 737-800BCF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If Installed in compliance with SB 737-21-1154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes equipped with part number BOE2003-0052 seal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If Installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applies to airplanes with single battery installation only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applies to airplanes with single battery installations only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applies to airplanes with dual battery installation only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applies to airplanes with dual battery installations only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with AMSAFE inflatable seat restraints installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If Installed. Applicable to dry cell type ELT's only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If Installed. Applicable to non-dry cell type ELT's only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with non-rechargeable flashlight batteries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with rechargeable flashlight batteries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applies to Jamco (ionization type) lavatory smoke detectors only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filter/drier and metering orifice are applicable if second halon bottle installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If second halon bottle installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 2093, 2216 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 596; and 1268 and on; and L/N 1-595 and 597-1267 with incorporation of SB 737-27-1253.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes L/N 1-595 and 597-1267 that have not incorporated SB 737-27-1253.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If Installed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 596; and 1175 and on; and L/N 1-595 and 597-1174 that have incorporated SB 737-55A1080.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to all airplanes except 737-900 line number 683 to 1174 that have not incorporated SB 737-55-1081.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 350 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For 251A4510-4 actuator, restore both primary and secondary stabilizer trim actuator brakes. For 251A4510-5 actuator, restore only the secondary stabilizer trim actuator brake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 900ER and airplanes with Short Field Performance Package (if installed).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to all 737-700 airplanes with winglets except 737-700IGW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 1981 and 2093.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplane line number 1973 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes L/N 1 to 1691 that have incorporated Boeing SB 737-57A1279, L/N 1692 to 1754 that have incorporated Boeing SB 737-57A1279 or Boeing SB 737-28-1312, and L/N 1755 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This CMR is only applicable to the following fuel pumps if the fuel pumps are installed without fuel pump ground fault interrupter (GFI): Boost Pumps 60B92404-6, 60B92404-7 and Override Pumps 60B89004-10, 60B89004-12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplane line numbers 1494 and on, and operators that have incorporated Boeing Service Bulletin 737-28A1206.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the APU fuel boost pump is installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with densitometers from line number 1767 and on, and airplanes incorporating service bulletin 737-28A1221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with densitometers from line number 1767 and on, and airplanes incorporating Service Bulletin 737-28A1221.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Airplanes L/N 1877 - 1980, and 1982; and Airplanes that have incorporated Service Bulletin 737-28A1207.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with automatic Air Data Sensor heating installed. Airplanes Line Number 3424 and on, and airplanes incorporating SB 737-30A1063.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 900ER and airplanes with Short Field Performance Package and Two-Position Tailskid (if installed).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single lens configuration only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dual Lens Configuration (Glass).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not applicable to airplanes with all gaseous passenger oxygen system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If lavatory oxygen Constant Dispensing System (CDS) installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 737-800BCF if installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplane with forward gray water drain valve installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with vacuum blower equipped with a filter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to filter basket part numbers 01940-001 and 01956-000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to all filter basket part numbers except 01940-001 and 01956-000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If Nitrogen Generation System is installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LN 1820, 1831, 2517, 2620 and on; and All airplanes that have incorporated Service Bulletin 737-47-1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to Parker Hannifin Corporation filter element P/N 2040025-207.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplane L/N 1221 and on and to those airplanes with the new flight deck security door installed by the customer specific Boeing service bulletins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with exhaust plugs equipped with drain pan and tube system installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with active Mid-Exit Doors installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 737-900 airplanes line number 683 to 1174.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes 737-900 line number 683 to 1174 that have not incorporated SB 737-55-1081.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Airplanes with gaseous passenger oxygen system installed. (All 700C airplanes have gaseous oxygen. Gaseous passenger oxygen is an option on the 700).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes line number 145 and on.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9108,6 +9123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -9154,7 +9177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9186,9 +9209,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9220,6 +9261,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9395,14 +9454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9485,7 +9546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9568,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9651,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9734,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9817,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9900,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9983,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10066,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10149,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10232,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10315,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10398,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10481,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10564,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10647,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10730,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10810,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10890,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10970,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11050,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11130,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11210,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11290,7 +11351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11370,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11450,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11530,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11610,7 +11671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11690,7 +11751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11770,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11850,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11930,7 +11991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12007,7 +12068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12087,7 +12148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12167,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12247,7 +12308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12327,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12407,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12487,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12567,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12647,7 +12708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12727,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12807,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12887,7 +12948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12967,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13047,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13127,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13207,7 +13268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13287,7 +13348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13367,7 +13428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13447,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13527,7 +13588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13607,7 +13668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13687,7 +13748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13767,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13847,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13927,7 +13988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14007,7 +14068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14087,7 +14148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14167,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14247,7 +14308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14327,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14407,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14487,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14567,7 +14628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14647,7 +14708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14730,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -14813,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -14896,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -14979,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15059,7 +15120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15142,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15222,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15302,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15382,7 +15443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15462,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15542,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15622,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15705,7 +15766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15788,7 +15849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -15871,7 +15932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -15954,7 +16015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -16037,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16120,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16203,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16286,7 +16347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16369,7 +16430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16452,7 +16513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16535,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -16618,7 +16679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -16701,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -16784,7 +16845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -16867,7 +16928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -16950,7 +17011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17033,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17113,7 +17174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17193,7 +17254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17273,7 +17334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17353,7 +17414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17433,7 +17494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -17513,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -17593,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -17673,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -17753,7 +17814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -17833,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -17913,7 +17974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -17996,7 +18057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -18079,7 +18140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -18162,7 +18223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -18245,7 +18306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -18325,7 +18386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -18408,7 +18469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -18491,7 +18552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -18571,7 +18632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -18651,7 +18712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -18731,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -18811,7 +18872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -18891,7 +18952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -18971,7 +19032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -19051,7 +19112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -19131,7 +19192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -19211,7 +19272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -19291,7 +19352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -19371,7 +19432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -19451,7 +19512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -19531,7 +19592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -19614,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -19697,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -19777,7 +19838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -19857,7 +19918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -19937,7 +19998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -20017,7 +20078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -20100,7 +20161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -20180,7 +20241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -20260,7 +20321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -20340,7 +20401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -20423,7 +20484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -20506,7 +20567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -20589,7 +20650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -20672,7 +20733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -20752,7 +20813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -20832,7 +20893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -20915,7 +20976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -20998,7 +21059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -21081,7 +21142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -21164,7 +21225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -21247,7 +21308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -21327,7 +21388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -21407,7 +21468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -21487,7 +21548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -21570,7 +21631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -21653,7 +21714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -21736,7 +21797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -21819,7 +21880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -21902,7 +21963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -21982,7 +22043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -22062,7 +22123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -22139,7 +22200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -22219,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -22302,7 +22363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -22343,7 +22404,7 @@
         <v>14</v>
       </c>
       <c r="N160">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O160" t="s">
         <v>1769</v>
@@ -22385,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -22468,7 +22529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -22551,7 +22612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -22631,7 +22692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -22711,7 +22772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -22791,7 +22852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -22871,7 +22932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -22954,7 +23015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -23037,7 +23098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -23117,7 +23178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -23197,7 +23258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -23277,7 +23338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -23357,7 +23418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -23440,7 +23501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -23523,7 +23584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -23603,7 +23664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -23686,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -23769,7 +23830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -23852,7 +23913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -23935,7 +23996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -24015,7 +24076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -24098,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -24181,7 +24242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -24261,7 +24322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -24341,7 +24402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -24421,7 +24482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -24504,7 +24565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -24587,7 +24648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -24670,7 +24731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -24753,7 +24814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -24836,7 +24897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -24919,7 +24980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -24999,7 +25060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -25082,7 +25143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -25162,7 +25223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -25242,7 +25303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -25325,7 +25386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -25408,7 +25469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -25488,7 +25549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -25571,7 +25632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -25654,7 +25715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -25737,7 +25798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -25820,7 +25881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -25903,7 +25964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -25986,7 +26047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -26069,7 +26130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -26152,7 +26213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -26235,7 +26296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -26315,7 +26376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -26395,7 +26456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -26478,7 +26539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -26561,7 +26622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -26641,7 +26702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -26721,7 +26782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -26801,7 +26862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -26884,7 +26945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -26967,7 +27028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -27050,7 +27111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -27133,7 +27194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -27216,7 +27277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -27299,7 +27360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -27382,7 +27443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -27465,7 +27526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -27545,7 +27606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -27625,7 +27686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -27705,7 +27766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -27785,7 +27846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -27868,7 +27929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -27951,7 +28012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -28031,7 +28092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -28114,7 +28175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -28197,7 +28258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -28280,7 +28341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -28363,7 +28424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -28446,7 +28507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -28529,7 +28590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -28612,7 +28673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -28695,7 +28756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -28778,7 +28839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -28861,7 +28922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -28944,7 +29005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -29027,7 +29088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -29110,7 +29171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -29190,7 +29251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -29270,7 +29331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -29350,7 +29411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -29430,7 +29491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -29513,7 +29574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:28">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -29596,7 +29657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:28">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -29679,7 +29740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:28">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -29762,7 +29823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:28">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -29845,7 +29906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:28">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -29928,7 +29989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:28">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -30011,7 +30072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:28">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -30094,7 +30155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:28">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -30174,7 +30235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:28">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -30254,7 +30315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:28">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -30334,7 +30395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:28">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -30414,7 +30475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:28">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -30494,7 +30555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:28">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -30574,7 +30635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:28">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -30654,7 +30715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:28">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -30737,7 +30798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -30820,7 +30881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -30903,7 +30964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -30986,7 +31047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -31069,7 +31130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:28">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -31152,7 +31213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:28">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -31232,7 +31293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:28">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -31315,7 +31376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:28">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -31398,7 +31459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:28">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -31481,7 +31542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:28">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -31564,7 +31625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:28">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -31647,7 +31708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:28">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -31688,7 +31749,7 @@
         <v>14</v>
       </c>
       <c r="N274">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O274" t="s">
         <v>1883</v>
@@ -31730,7 +31791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:28">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -31813,7 +31874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:28">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -31893,7 +31954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:28">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -31973,7 +32034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:28">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -32053,7 +32114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:28">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -32133,7 +32194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:28">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -32213,7 +32274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:28">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -32293,7 +32354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:28">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -32373,7 +32434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:28">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -32456,7 +32517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:28">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -32539,7 +32600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:28">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -32619,7 +32680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:28">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -32699,7 +32760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:28">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -32782,7 +32843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:28">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -32862,7 +32923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:28">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -32942,7 +33003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:28">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -33025,7 +33086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:28">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -33105,7 +33166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:28">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -33188,7 +33249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:28">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -33271,7 +33332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:28">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -33354,7 +33415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:28">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -33431,7 +33492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:28">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -33514,7 +33575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:28">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -33597,7 +33658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:28">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -33680,7 +33741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:28">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -33763,7 +33824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:28">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -33846,7 +33907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:28">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -33929,7 +33990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:28">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -34009,7 +34070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:28">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -34089,7 +34150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:28">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -34169,7 +34230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:28">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -34249,7 +34310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:28">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -34329,7 +34390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:28">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -34409,7 +34470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:28">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -34492,7 +34553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:28">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -34575,7 +34636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:28">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -34658,7 +34719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:28">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -34741,7 +34802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:28">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -34821,7 +34882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:28">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -34901,7 +34962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:28">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -34981,7 +35042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:28">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -35061,7 +35122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:28">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -35141,7 +35202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:28">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -35221,7 +35282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:28">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -35301,7 +35362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:28">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -35381,7 +35442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:28">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -35461,7 +35522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:28">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -35541,7 +35602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:28">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -35621,7 +35682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:28">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -35701,7 +35762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:28">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -35781,7 +35842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -35861,7 +35922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -35941,7 +36002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -36021,7 +36082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:28">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -36101,7 +36162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:28">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -36181,7 +36242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -36261,7 +36322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:28">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -36341,7 +36402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:28">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -36421,7 +36482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:28">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -36501,7 +36562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:28">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -36584,7 +36645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:28">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -36664,7 +36725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:28">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -36744,7 +36805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:28">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -36824,7 +36885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:28">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -36904,7 +36965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:28">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -36987,7 +37048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:28">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -37070,7 +37131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:28">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -37150,7 +37211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:28">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -37230,7 +37291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:28">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -37310,7 +37371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:28">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -37390,7 +37451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:28">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -37470,7 +37531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:28">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -37550,7 +37611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:28">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -37633,7 +37694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:28">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -37716,7 +37777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:28">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -37799,7 +37860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:28">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -37882,7 +37943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:28">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -37965,7 +38026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:28">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -38048,7 +38109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:28">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -38128,7 +38189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:28">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -38208,7 +38269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:28">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -38288,7 +38349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:28">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -38368,7 +38429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:28">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -38451,7 +38512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:28">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -38534,7 +38595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:28">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -38614,7 +38675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:28">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -38694,7 +38755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:28">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -38777,7 +38838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:28">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -38860,7 +38921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:28">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -38943,7 +39004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:28">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -39023,7 +39084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:28">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -39106,7 +39167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:28">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -39189,7 +39250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:28">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -39269,7 +39330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:28">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -39349,7 +39410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:28">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -39429,7 +39490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:28">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -39509,7 +39570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:28">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -39589,7 +39650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:28">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -39669,7 +39730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:28">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -39752,7 +39813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:28">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -39832,7 +39893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:28">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -39870,7 +39931,7 @@
         <v>14</v>
       </c>
       <c r="N375">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O375" t="s">
         <v>1984</v>
@@ -39912,7 +39973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:28">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -39950,7 +40011,7 @@
         <v>14</v>
       </c>
       <c r="N376">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O376" t="s">
         <v>1985</v>
@@ -39992,7 +40053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:28">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -40072,7 +40133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:28">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -40152,7 +40213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:28">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -40232,7 +40293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:28">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -40315,7 +40376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:28">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -40395,7 +40456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:28">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -40475,7 +40536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:28">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -40558,7 +40619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:28">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -40641,7 +40702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:28">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -40724,7 +40785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:28">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -40804,7 +40865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:28">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -40884,7 +40945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:28">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -40964,7 +41025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:28">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -41044,7 +41105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:28">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -41124,7 +41185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:28">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -41204,7 +41265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:28">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -41284,7 +41345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:28">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -41364,7 +41425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:28">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -41444,7 +41505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:28">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -41524,7 +41585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:28">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -41601,7 +41662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:28">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -41681,7 +41742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:28">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -41761,7 +41822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:28">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -41841,7 +41902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:28">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -41921,7 +41982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:28">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -42004,7 +42065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:28">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -42087,7 +42148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:28">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -42170,7 +42231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:28">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -42253,7 +42314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:28">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -42336,7 +42397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:28">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -42419,7 +42480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:28">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -42499,7 +42560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:28">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -42582,7 +42643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:28">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -42665,7 +42726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:28">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -42748,7 +42809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:28">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -42831,7 +42892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:28">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -42914,7 +42975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:28">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -42997,7 +43058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:28">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -43080,7 +43141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:28">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -43163,7 +43224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:28">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -43246,7 +43307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:28">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -43326,7 +43387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:28">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -43409,7 +43470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:28">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -43492,7 +43553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:28">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -43575,7 +43636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:28">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -43655,7 +43716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:28">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -43738,7 +43799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:28">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -43821,7 +43882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:28">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -43904,7 +43965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:28">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -43987,7 +44048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:28">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -44070,7 +44131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:28">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -44153,7 +44214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:28">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -44236,7 +44297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:28">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -44319,7 +44380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:28">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -44402,7 +44463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:28">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -44485,7 +44546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:28">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -44568,7 +44629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:28">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -44651,7 +44712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:28">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -44734,7 +44795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:28">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -44817,7 +44878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:28">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -44900,7 +44961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:28">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -44983,7 +45044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:28">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -45066,7 +45127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:28">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -45146,7 +45207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:28">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -45226,7 +45287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:28">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -45309,7 +45370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:28">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -45392,7 +45453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:28">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -45472,7 +45533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:28">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -45552,7 +45613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:28">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -45632,7 +45693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:28">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -45712,7 +45773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:28">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -45792,7 +45853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:28">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -45872,7 +45933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:28">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -45952,7 +46013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:28">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -46032,7 +46093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:28">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -46112,7 +46173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:28">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -46192,7 +46253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:28">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -46275,7 +46336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:28">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -46358,7 +46419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:28">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -46441,7 +46502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:28">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -46524,7 +46585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:28">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -46607,7 +46668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:28">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -46690,7 +46751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:28">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -46773,7 +46834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:28">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -46856,7 +46917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:28">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -46939,7 +47000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:28">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -47022,7 +47083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:28">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -47105,7 +47166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:28">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -47188,7 +47249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:28">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -47271,7 +47332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:28">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -47354,7 +47415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:28">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -47437,7 +47498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:28">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -47520,7 +47581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:28">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -47599,11 +47660,14 @@
       <c r="Z469" t="b">
         <v>1</v>
       </c>
+      <c r="AA469" t="s">
+        <v>2294</v>
+      </c>
       <c r="AB469" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:28">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -47682,11 +47746,14 @@
       <c r="Z470" t="b">
         <v>1</v>
       </c>
+      <c r="AA470" t="s">
+        <v>2294</v>
+      </c>
       <c r="AB470" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:28">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -47765,11 +47832,14 @@
       <c r="Z471" t="b">
         <v>1</v>
       </c>
+      <c r="AA471" t="s">
+        <v>2295</v>
+      </c>
       <c r="AB471" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:28">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -47848,11 +47918,14 @@
       <c r="Z472" t="b">
         <v>1</v>
       </c>
+      <c r="AA472" t="s">
+        <v>2295</v>
+      </c>
       <c r="AB472" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:28">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -47935,7 +48008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:28">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -48018,7 +48091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:28">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -48101,7 +48174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:28">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -48184,7 +48257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:28">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -48267,7 +48340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:28">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -48350,7 +48423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:28">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -48433,7 +48506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:28">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -48516,7 +48589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:28">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -48599,7 +48672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:28">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -48682,7 +48755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:28">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -48765,7 +48838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:28">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -48848,7 +48921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:28">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -48931,7 +49004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:28">
+    <row r="486" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -49014,7 +49087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:28">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -49097,7 +49170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:28">
+    <row r="488" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -49180,7 +49253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:28">
+    <row r="489" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -49263,7 +49336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:28">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -49346,7 +49419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:28">
+    <row r="491" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -49429,7 +49502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:28">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -49512,7 +49585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:28">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -49595,7 +49668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:28">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -49678,7 +49751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:28">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -49761,7 +49834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:28">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -49844,7 +49917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:28">
+    <row r="497" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -49924,7 +49997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:28">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -50004,7 +50077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:28">
+    <row r="499" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -50087,7 +50160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:28">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -50170,7 +50243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:28">
+    <row r="501" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -50253,7 +50326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:28">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -50336,7 +50409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:28">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -50419,7 +50492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:28">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -50502,7 +50575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:28">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -50585,7 +50658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:28">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -50668,7 +50741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:28">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -50751,7 +50824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:28">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -50834,7 +50907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:28">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -50917,7 +50990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:28">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -51000,7 +51073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:28">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -51083,7 +51156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:28">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -51166,7 +51239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:28">
+    <row r="513" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -51249,7 +51322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:28">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -51332,7 +51405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:28">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -51412,7 +51485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:28">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -51492,7 +51565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:28">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -51575,7 +51648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:28">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -51658,7 +51731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:28">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -51741,7 +51814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:28">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -51824,7 +51897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:28">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -51907,7 +51980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:28">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -51990,7 +52063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:28">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -52070,13 +52143,13 @@
         <v>0</v>
       </c>
       <c r="AA523" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="AB523" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="524" spans="1:28">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -52156,13 +52229,13 @@
         <v>0</v>
       </c>
       <c r="AA524" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="AB524" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="525" spans="1:28">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -52239,13 +52312,13 @@
         <v>0</v>
       </c>
       <c r="AA525" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="AB525" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="1:28">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -52322,13 +52395,13 @@
         <v>0</v>
       </c>
       <c r="AA526" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="AB526" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="527" spans="1:28">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -52405,13 +52478,13 @@
         <v>0</v>
       </c>
       <c r="AA527" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="AB527" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:28">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -52491,13 +52564,13 @@
         <v>0</v>
       </c>
       <c r="AA528" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="AB528" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="529" spans="1:28">
+    <row r="529" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -52574,13 +52647,13 @@
         <v>0</v>
       </c>
       <c r="AA529" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="AB529" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="530" spans="1:28">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -52657,13 +52730,13 @@
         <v>0</v>
       </c>
       <c r="AA530" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="AB530" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="531" spans="1:28">
+    <row r="531" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -52740,13 +52813,13 @@
         <v>0</v>
       </c>
       <c r="AA531" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="AB531" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="532" spans="1:28">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -52823,13 +52896,13 @@
         <v>0</v>
       </c>
       <c r="AA532" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="AB532" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="533" spans="1:28">
+    <row r="533" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -52909,13 +52982,13 @@
         <v>0</v>
       </c>
       <c r="AA533" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="AB533" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:28">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -52995,13 +53068,13 @@
         <v>0</v>
       </c>
       <c r="AA534" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="AB534" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="535" spans="1:28">
+    <row r="535" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -53081,13 +53154,13 @@
         <v>0</v>
       </c>
       <c r="AA535" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="AB535" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="536" spans="1:28">
+    <row r="536" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -53167,13 +53240,13 @@
         <v>0</v>
       </c>
       <c r="AA536" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="AB536" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:28">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -53250,13 +53323,13 @@
         <v>0</v>
       </c>
       <c r="AA537" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="AB537" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="538" spans="1:28">
+    <row r="538" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -53333,13 +53406,13 @@
         <v>0</v>
       </c>
       <c r="AA538" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="AB538" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="539" spans="1:28">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -53419,13 +53492,13 @@
         <v>0</v>
       </c>
       <c r="AA539" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="AB539" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="540" spans="1:28">
+    <row r="540" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -53505,13 +53578,13 @@
         <v>0</v>
       </c>
       <c r="AA540" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="AB540" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="541" spans="1:28">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -53588,13 +53661,13 @@
         <v>0</v>
       </c>
       <c r="AA541" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="AB541" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="542" spans="1:28">
+    <row r="542" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -53674,13 +53747,13 @@
         <v>0</v>
       </c>
       <c r="AA542" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="AB542" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="543" spans="1:28">
+    <row r="543" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -53757,13 +53830,13 @@
         <v>0</v>
       </c>
       <c r="AA543" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="AB543" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="544" spans="1:28">
+    <row r="544" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -53843,13 +53916,13 @@
         <v>0</v>
       </c>
       <c r="AA544" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="AB544" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="545" spans="1:28">
+    <row r="545" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -53929,13 +54002,13 @@
         <v>0</v>
       </c>
       <c r="AA545" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="AB545" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="546" spans="1:28">
+    <row r="546" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -54012,13 +54085,13 @@
         <v>0</v>
       </c>
       <c r="AA546" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="AB546" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="1:28">
+    <row r="547" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -54095,13 +54168,13 @@
         <v>0</v>
       </c>
       <c r="AA547" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="AB547" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="548" spans="1:28">
+    <row r="548" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -54178,13 +54251,13 @@
         <v>0</v>
       </c>
       <c r="AA548" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="AB548" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:28">
+    <row r="549" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -54261,13 +54334,13 @@
         <v>0</v>
       </c>
       <c r="AA549" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="AB549" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:28">
+    <row r="550" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -54344,13 +54417,13 @@
         <v>0</v>
       </c>
       <c r="AA550" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="AB550" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="551" spans="1:28">
+    <row r="551" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -54427,13 +54500,13 @@
         <v>0</v>
       </c>
       <c r="AA551" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="AB551" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:28">
+    <row r="552" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -54510,13 +54583,13 @@
         <v>0</v>
       </c>
       <c r="AA552" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="AB552" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:28">
+    <row r="553" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -54593,13 +54666,13 @@
         <v>0</v>
       </c>
       <c r="AA553" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="AB553" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:28">
+    <row r="554" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -54676,13 +54749,13 @@
         <v>0</v>
       </c>
       <c r="AA554" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="AB554" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:28">
+    <row r="555" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -54762,13 +54835,13 @@
         <v>0</v>
       </c>
       <c r="AA555" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="AB555" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:28">
+    <row r="556" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -54848,13 +54921,13 @@
         <v>0</v>
       </c>
       <c r="AA556" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="AB556" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:28">
+    <row r="557" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -54928,13 +55001,13 @@
         <v>0</v>
       </c>
       <c r="AA557" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="AB557" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:28">
+    <row r="558" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -55014,13 +55087,13 @@
         <v>0</v>
       </c>
       <c r="AA558" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="AB558" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:28">
+    <row r="559" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -55100,13 +55173,13 @@
         <v>0</v>
       </c>
       <c r="AA559" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="AB559" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="560" spans="1:28">
+    <row r="560" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -55186,13 +55259,13 @@
         <v>0</v>
       </c>
       <c r="AA560" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="AB560" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="561" spans="1:28">
+    <row r="561" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -55272,13 +55345,13 @@
         <v>0</v>
       </c>
       <c r="AA561" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="AB561" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="562" spans="1:28">
+    <row r="562" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -55358,13 +55431,13 @@
         <v>0</v>
       </c>
       <c r="AA562" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="AB562" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="563" spans="1:28">
+    <row r="563" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -55441,13 +55514,13 @@
         <v>0</v>
       </c>
       <c r="AA563" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="AB563" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="1:28">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -55527,13 +55600,13 @@
         <v>0</v>
       </c>
       <c r="AA564" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="AB564" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="565" spans="1:28">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -55613,13 +55686,13 @@
         <v>0</v>
       </c>
       <c r="AA565" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="AB565" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="566" spans="1:28">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -55699,13 +55772,13 @@
         <v>0</v>
       </c>
       <c r="AA566" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="AB566" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="567" spans="1:28">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -55785,13 +55858,13 @@
         <v>0</v>
       </c>
       <c r="AA567" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="AB567" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="568" spans="1:28">
+    <row r="568" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -55871,13 +55944,13 @@
         <v>0</v>
       </c>
       <c r="AA568" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="AB568" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="569" spans="1:28">
+    <row r="569" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -55954,13 +56027,13 @@
         <v>0</v>
       </c>
       <c r="AA569" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="AB569" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="570" spans="1:28">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -56040,13 +56113,13 @@
         <v>0</v>
       </c>
       <c r="AA570" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="AB570" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:28">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -56126,13 +56199,13 @@
         <v>0</v>
       </c>
       <c r="AA571" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="AB571" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="572" spans="1:28">
+    <row r="572" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -56209,13 +56282,13 @@
         <v>0</v>
       </c>
       <c r="AA572" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="AB572" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="573" spans="1:28">
+    <row r="573" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -56292,13 +56365,13 @@
         <v>0</v>
       </c>
       <c r="AA573" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="AB573" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="574" spans="1:28">
+    <row r="574" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -56375,13 +56448,13 @@
         <v>0</v>
       </c>
       <c r="AA574" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="AB574" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="575" spans="1:28">
+    <row r="575" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -56455,13 +56528,13 @@
         <v>0</v>
       </c>
       <c r="AA575" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="AB575" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="576" spans="1:28">
+    <row r="576" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -56535,13 +56608,13 @@
         <v>0</v>
       </c>
       <c r="AA576" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="AB576" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="577" spans="1:28">
+    <row r="577" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -56621,13 +56694,13 @@
         <v>0</v>
       </c>
       <c r="AA577" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="AB577" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="578" spans="1:28">
+    <row r="578" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -56707,13 +56780,13 @@
         <v>0</v>
       </c>
       <c r="AA578" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="AB578" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="579" spans="1:28">
+    <row r="579" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -56790,13 +56863,13 @@
         <v>0</v>
       </c>
       <c r="AA579" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="AB579" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="580" spans="1:28">
+    <row r="580" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -56873,13 +56946,13 @@
         <v>0</v>
       </c>
       <c r="AA580" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="AB580" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="581" spans="1:28">
+    <row r="581" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -56956,13 +57029,13 @@
         <v>0</v>
       </c>
       <c r="AA581" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="AB581" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="582" spans="1:28">
+    <row r="582" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -57039,13 +57112,13 @@
         <v>0</v>
       </c>
       <c r="AA582" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="AB582" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="583" spans="1:28">
+    <row r="583" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -57125,13 +57198,13 @@
         <v>0</v>
       </c>
       <c r="AA583" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="AB583" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="584" spans="1:28">
+    <row r="584" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -57211,13 +57284,13 @@
         <v>0</v>
       </c>
       <c r="AA584" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="AB584" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="585" spans="1:28">
+    <row r="585" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -57294,13 +57367,13 @@
         <v>0</v>
       </c>
       <c r="AA585" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="AB585" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="586" spans="1:28">
+    <row r="586" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -57377,13 +57450,13 @@
         <v>0</v>
       </c>
       <c r="AA586" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="AB586" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="587" spans="1:28">
+    <row r="587" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -57460,13 +57533,13 @@
         <v>0</v>
       </c>
       <c r="AA587" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="AB587" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="588" spans="1:28">
+    <row r="588" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -57543,13 +57616,13 @@
         <v>0</v>
       </c>
       <c r="AA588" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="AB588" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="589" spans="1:28">
+    <row r="589" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -57623,13 +57696,13 @@
         <v>0</v>
       </c>
       <c r="AA589" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="AB589" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="590" spans="1:28">
+    <row r="590" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -57709,13 +57782,13 @@
         <v>0</v>
       </c>
       <c r="AA590" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="AB590" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="591" spans="1:28">
+    <row r="591" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -57792,13 +57865,13 @@
         <v>0</v>
       </c>
       <c r="AA591" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="AB591" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="592" spans="1:28">
+    <row r="592" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -57875,13 +57948,13 @@
         <v>0</v>
       </c>
       <c r="AA592" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="AB592" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="593" spans="1:28">
+    <row r="593" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -57958,13 +58031,13 @@
         <v>0</v>
       </c>
       <c r="AA593" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="AB593" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="594" spans="1:28">
+    <row r="594" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -58041,13 +58114,13 @@
         <v>0</v>
       </c>
       <c r="AA594" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="AB594" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="595" spans="1:28">
+    <row r="595" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -58124,13 +58197,13 @@
         <v>0</v>
       </c>
       <c r="AA595" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="AB595" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="1:28">
+    <row r="596" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -58207,13 +58280,13 @@
         <v>0</v>
       </c>
       <c r="AA596" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="AB596" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="597" spans="1:28">
+    <row r="597" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -58290,13 +58363,13 @@
         <v>0</v>
       </c>
       <c r="AA597" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="AB597" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="598" spans="1:28">
+    <row r="598" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -58376,13 +58449,13 @@
         <v>0</v>
       </c>
       <c r="AA598" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="AB598" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="599" spans="1:28">
+    <row r="599" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -58462,13 +58535,13 @@
         <v>0</v>
       </c>
       <c r="AA599" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="AB599" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="600" spans="1:28">
+    <row r="600" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -58548,13 +58621,13 @@
         <v>0</v>
       </c>
       <c r="AA600" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="AB600" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="1:28">
+    <row r="601" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -58634,13 +58707,13 @@
         <v>0</v>
       </c>
       <c r="AA601" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AB601" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="602" spans="1:28">
+    <row r="602" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -58720,13 +58793,13 @@
         <v>0</v>
       </c>
       <c r="AA602" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AB602" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:28">
+    <row r="603" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -58806,13 +58879,13 @@
         <v>0</v>
       </c>
       <c r="AA603" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AB603" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="604" spans="1:28">
+    <row r="604" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -58892,13 +58965,13 @@
         <v>0</v>
       </c>
       <c r="AA604" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AB604" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:28">
+    <row r="605" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -58978,13 +59051,13 @@
         <v>0</v>
       </c>
       <c r="AA605" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AB605" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:28">
+    <row r="606" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -59061,13 +59134,13 @@
         <v>0</v>
       </c>
       <c r="AA606" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="AB606" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:28">
+    <row r="607" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -59144,13 +59217,13 @@
         <v>0</v>
       </c>
       <c r="AA607" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="AB607" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:28">
+    <row r="608" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -59230,13 +59303,13 @@
         <v>0</v>
       </c>
       <c r="AA608" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AB608" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="609" spans="1:28">
+    <row r="609" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -59313,13 +59386,13 @@
         <v>0</v>
       </c>
       <c r="AA609" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AB609" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:28">
+    <row r="610" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -59396,13 +59469,13 @@
         <v>0</v>
       </c>
       <c r="AA610" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AB610" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:28">
+    <row r="611" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -59479,13 +59552,13 @@
         <v>0</v>
       </c>
       <c r="AA611" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AB611" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="612" spans="1:28">
+    <row r="612" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -59562,13 +59635,13 @@
         <v>0</v>
       </c>
       <c r="AA612" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AB612" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:28">
+    <row r="613" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -59645,13 +59718,13 @@
         <v>0</v>
       </c>
       <c r="AA613" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AB613" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:28">
+    <row r="614" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -59728,13 +59801,13 @@
         <v>0</v>
       </c>
       <c r="AA614" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AB614" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="1:28">
+    <row r="615" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -59814,13 +59887,13 @@
         <v>0</v>
       </c>
       <c r="AA615" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="AB615" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="616" spans="1:28">
+    <row r="616" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -59900,13 +59973,13 @@
         <v>0</v>
       </c>
       <c r="AA616" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="AB616" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:28">
+    <row r="617" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -59983,7 +60056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:28">
+    <row r="618" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -60060,7 +60133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:28">
+    <row r="619" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -60140,7 +60213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:28">
+    <row r="620" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -60220,7 +60293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:28">
+    <row r="621" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -60300,7 +60373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:28">
+    <row r="622" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -60380,7 +60453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:28">
+    <row r="623" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -60460,7 +60533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:28">
+    <row r="624" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -60540,7 +60613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:28">
+    <row r="625" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -60620,7 +60693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:28">
+    <row r="626" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -60700,7 +60773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:28">
+    <row r="627" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -60780,7 +60853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:28">
+    <row r="628" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -60860,7 +60933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:28">
+    <row r="629" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -60943,7 +61016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:28">
+    <row r="630" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -61023,7 +61096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:28">
+    <row r="631" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -61103,7 +61176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:28">
+    <row r="632" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -61186,7 +61259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:28">
+    <row r="633" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -61269,7 +61342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:28">
+    <row r="634" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -61352,7 +61425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:28">
+    <row r="635" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -61432,7 +61505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:28">
+    <row r="636" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -61515,7 +61588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:28">
+    <row r="637" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -61598,7 +61671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:28">
+    <row r="638" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -61681,7 +61754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:28">
+    <row r="639" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -61764,7 +61837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:28">
+    <row r="640" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -61847,7 +61920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:28">
+    <row r="641" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -61930,7 +62003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:28">
+    <row r="642" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -62010,7 +62083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:28">
+    <row r="643" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -62093,7 +62166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:28">
+    <row r="644" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -62176,7 +62249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:28">
+    <row r="645" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -62256,13 +62329,13 @@
         <v>0</v>
       </c>
       <c r="AA645" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="AB645" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:28">
+    <row r="646" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -62342,13 +62415,13 @@
         <v>0</v>
       </c>
       <c r="AA646" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="AB646" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:28">
+    <row r="647" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -62428,7 +62501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:28">
+    <row r="648" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -62511,7 +62584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:28">
+    <row r="649" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -62591,7 +62664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:28">
+    <row r="650" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -62671,7 +62744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:28">
+    <row r="651" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -62751,7 +62824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:28">
+    <row r="652" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -62831,7 +62904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:28">
+    <row r="653" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -62911,7 +62984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:28">
+    <row r="654" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -62991,7 +63064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:28">
+    <row r="655" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -63071,7 +63144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:28">
+    <row r="656" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -63151,7 +63224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:28">
+    <row r="657" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -63231,7 +63304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:28">
+    <row r="658" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -63311,7 +63384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:28">
+    <row r="659" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -63391,7 +63464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:28">
+    <row r="660" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -63474,7 +63547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:28">
+    <row r="661" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -63515,7 +63588,7 @@
         <v>14</v>
       </c>
       <c r="N661">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O661" t="s">
         <v>2267</v>
@@ -63557,7 +63630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:28">
+    <row r="662" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -63637,7 +63710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:28">
+    <row r="663" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -63720,7 +63793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:28">
+    <row r="664" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -63803,7 +63876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:28">
+    <row r="665" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -63883,7 +63956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:28">
+    <row r="666" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -63963,7 +64036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:28">
+    <row r="667" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -64043,7 +64116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:28">
+    <row r="668" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -64123,13 +64196,13 @@
         <v>0</v>
       </c>
       <c r="AA668" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="AB668" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:28">
+    <row r="669" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -64209,13 +64282,13 @@
         <v>0</v>
       </c>
       <c r="AA669" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="AB669" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:28">
+    <row r="670" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -64295,7 +64368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:28">
+    <row r="671" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -64378,7 +64451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:28">
+    <row r="672" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -64461,7 +64534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:28">
+    <row r="673" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -64538,13 +64611,13 @@
         <v>0</v>
       </c>
       <c r="AA673" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AB673" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:28">
+    <row r="674" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -64621,13 +64694,13 @@
         <v>0</v>
       </c>
       <c r="AA674" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AB674" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:28">
+    <row r="675" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -64704,13 +64777,13 @@
         <v>0</v>
       </c>
       <c r="AA675" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AB675" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:28">
+    <row r="676" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -64787,13 +64860,13 @@
         <v>0</v>
       </c>
       <c r="AA676" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AB676" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:28">
+    <row r="677" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -64876,7 +64949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:28">
+    <row r="678" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -64959,7 +65032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:28">
+    <row r="679" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -65042,7 +65115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:28">
+    <row r="680" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -65125,7 +65198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:28">
+    <row r="681" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -65208,7 +65281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:28">
+    <row r="682" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -65291,7 +65364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:28">
+    <row r="683" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -65371,7 +65444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:28">
+    <row r="684" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -65454,7 +65527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:28">
+    <row r="685" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -65534,7 +65607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:28">
+    <row r="686" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -65614,7 +65687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:28">
+    <row r="687" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -65691,13 +65764,14 @@
         <v>0</v>
       </c>
       <c r="AA687" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="AB687" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB687" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>